--- a/wikipedia_validation_sheets/Arterial embolism DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Arterial embolism DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FC748D86-811D-3048-A5F9-6EB25E1B8B5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAA6F2-F4D7-4C4D-B121-C5442EC3520A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{69F96935-FBBF-4024-BD02-DE84B365932D}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="25600" windowHeight="21140" xr2:uid="{69F96935-FBBF-4024-BD02-DE84B365932D}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="115">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -346,6 +351,30 @@
   </si>
   <si>
     <t>Temporarily decreased organ function</t>
+  </si>
+  <si>
+    <t>obstruction, blocks</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>arterial, emboli</t>
+  </si>
+  <si>
+    <t>thrombosis</t>
+  </si>
+  <si>
+    <t>Thrombosis of blood vessel</t>
+  </si>
+  <si>
+    <t>infarction</t>
+  </si>
+  <si>
+    <t>Infarction</t>
   </si>
 </sst>
 </file>
@@ -421,25 +450,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,51 +598,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -702,96 +673,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,13 +769,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CE2DD9-BF95-4F55-8224-BF630F1D741D}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1155,67 +1125,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1223,28 +1194,28 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="27" t="b">
+      <c r="E5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="31" t="s">
+      <c r="F5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1252,28 +1223,28 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="5" t="b">
+      <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="33" t="s">
+      <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1281,28 +1252,28 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="5" t="b">
+      <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      <c r="F7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1310,28 +1281,28 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="5" t="b">
+      <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="33" t="s">
+      <c r="F8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1339,28 +1310,28 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="5" t="b">
+      <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="33" t="s">
+      <c r="F9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1368,28 +1339,28 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="5" t="b">
+      <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1397,28 +1368,28 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="5" t="b">
+      <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      <c r="F11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1426,28 +1397,28 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="5" t="b">
+      <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1455,28 +1426,28 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="5" t="b">
+      <c r="E13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1484,28 +1455,28 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="5" t="b">
+      <c r="E14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="33" t="s">
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1513,28 +1484,28 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="5" t="b">
+      <c r="E15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1542,28 +1513,28 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="5" t="b">
+      <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="33" t="s">
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1571,28 +1542,28 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="5" t="b">
+      <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1600,28 +1571,28 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="5" t="b">
+      <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1629,28 +1600,28 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="5" t="b">
+      <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1658,28 +1629,28 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="5" t="b">
+      <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1687,28 +1658,28 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="5" t="b">
+      <c r="E21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1716,28 +1687,28 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="5" t="b">
+      <c r="E22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1745,28 +1716,28 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="5" t="b">
+      <c r="E23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="33" t="s">
+      <c r="F23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1774,28 +1745,28 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="5" t="b">
+      <c r="E24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="33" t="s">
+      <c r="F24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1803,28 +1774,28 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="5" t="b">
+      <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="33" t="s">
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1832,28 +1803,28 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="5" t="b">
+      <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1861,28 +1832,28 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="5" t="b">
+      <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="33" t="s">
+      <c r="F27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1890,28 +1861,28 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="5" t="b">
+      <c r="E28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="33" t="s">
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1919,28 +1890,28 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="5" t="b">
+      <c r="E29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="33" t="s">
+      <c r="F29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1948,28 +1919,28 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="5" t="b">
+      <c r="E30" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="33" t="s">
+      <c r="F30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1977,28 +1948,28 @@
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="5" t="b">
+      <c r="E31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="33" t="s">
+      <c r="F31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2006,28 +1977,28 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="5" t="b">
+      <c r="E32" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="33" t="s">
+      <c r="F32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2035,28 +2006,28 @@
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="5" t="b">
+      <c r="E33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="33" t="s">
+      <c r="F33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2064,28 +2035,28 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="5" t="b">
+      <c r="E34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="F34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2093,28 +2064,28 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="5" t="b">
+      <c r="E35" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="33" t="s">
+      <c r="F35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2122,28 +2093,28 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="5" t="b">
+      <c r="E36" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="33" t="s">
+      <c r="F36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2151,28 +2122,28 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="5" t="b">
+      <c r="E37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="33" t="s">
+      <c r="F37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2180,28 +2151,28 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="5" t="b">
+      <c r="E38" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="33" t="s">
+      <c r="F38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2209,28 +2180,28 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="5" t="b">
+      <c r="E39" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" s="33" t="s">
+      <c r="F39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2238,28 +2209,28 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="20" t="b">
+      <c r="E40" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="33" t="s">
+      <c r="F40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2267,28 +2238,28 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="20" t="b">
+      <c r="E41" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2296,28 +2267,28 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="20" t="b">
+      <c r="E42" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2325,176 +2296,317 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="20" t="b">
+      <c r="E43" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="36" t="b">
+      <c r="E44" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="16" t="s">
+      <c r="F44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="19" t="s">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="19" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="19" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="19" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="19" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="19" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="19" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49" s="19" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="19" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" s="19" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
